--- a/public/doc/功能模块测试.xlsx
+++ b/public/doc/功能模块测试.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\workspace\HouseProject\public\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HouseProject\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E53EA-5948-46BD-88CA-2F103C76F3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,13 +265,33 @@
   </si>
   <si>
     <t>添加值效果待优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子菜单和父级菜单在一起，alias字段为必填字段，在swagger上已做说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid的枚举字段已提供过，/article/cate/pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联楼盘直接调用接口/floor/list，无城市关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过测试，该接口正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两者合并为链接管理，去除连接分类菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,12 +316,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -406,27 +431,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +444,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,11 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -731,22 +759,22 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -770,7 +798,7 @@
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="1"/>
@@ -782,10 +810,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -794,7 +822,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="1"/>
@@ -806,15 +834,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="1"/>
@@ -826,15 +854,15 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="1"/>
@@ -846,15 +874,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="1"/>
@@ -866,15 +894,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="1"/>
@@ -886,8 +914,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -896,7 +924,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="1"/>
@@ -908,15 +936,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="1"/>
@@ -928,10 +956,10 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -942,10 +970,10 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -954,7 +982,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -968,7 +996,7 @@
       <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="1"/>
@@ -980,21 +1008,21 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1004,8 +1032,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1014,7 +1042,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="1"/>
@@ -1026,8 +1054,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1038,10 +1066,12 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1050,8 +1080,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1064,7 +1094,7 @@
       <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="1"/>
@@ -1076,22 +1106,24 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1100,10 +1132,10 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1118,7 +1150,7 @@
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="1"/>
@@ -1130,15 +1162,15 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I18" s="1"/>
@@ -1150,7 +1182,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1162,7 +1194,7 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="1"/>
@@ -1174,10 +1206,10 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1190,10 +1222,12 @@
       <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1202,8 +1236,8 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1216,10 +1250,12 @@
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1228,8 +1264,8 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1240,10 +1276,12 @@
       <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1256,7 +1294,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1270,7 +1308,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1284,7 +1322,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1298,7 +1336,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1312,7 +1350,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1326,7 +1364,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1340,7 +1378,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1354,7 +1392,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1368,7 +1406,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1382,7 +1420,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1396,7 +1434,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1410,7 +1448,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1424,7 +1462,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="8"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1438,7 +1476,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1452,7 +1490,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="8"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1466,7 +1504,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1480,7 +1518,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="8"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1494,7 +1532,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1508,7 +1546,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1522,7 +1560,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1536,7 +1574,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1550,7 +1588,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -1564,7 +1602,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="8"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1578,7 +1616,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1592,7 +1630,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="8"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1606,7 +1644,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="8"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1620,7 +1658,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1634,7 +1672,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1648,7 +1686,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1662,7 +1700,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -1676,7 +1714,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1690,7 +1728,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="8"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1704,7 +1742,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="8"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -1718,7 +1756,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -1732,7 +1770,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -1746,7 +1784,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -1760,7 +1798,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>

--- a/public/doc/功能模块测试.xlsx
+++ b/public/doc/功能模块测试.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HouseProject\public\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\workspace\HouseProject\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0942CFB-D5BA-4FE2-B555-267CF5B312CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="65">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,9 +443,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,6 +465,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,18 +768,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -810,10 +815,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -834,8 +839,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,8 +859,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
@@ -874,8 +879,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
@@ -894,8 +899,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
@@ -914,8 +919,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -936,8 +941,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
@@ -952,37 +957,37 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1013,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1032,8 +1037,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1054,8 +1059,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1080,8 +1085,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1106,8 +1111,8 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1132,10 +1137,10 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1162,8 +1167,8 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1182,7 +1187,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1206,10 +1211,10 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1236,8 +1241,8 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1264,8 +1269,8 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>

--- a/public/doc/功能模块测试.xlsx
+++ b/public/doc/功能模块测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\workspace\HouseProject\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0942CFB-D5BA-4FE2-B555-267CF5B312CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328788C-DECC-49B8-92CD-39634A0A9A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>两者合并为链接管理，去除连接分类菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +486,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -752,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -983,73 +1007,75 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1057,126 +1083,128 @@
     </row>
     <row r="14" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1185,18 +1213,14 @@
     </row>
     <row r="19" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
@@ -1209,49 +1233,45 @@
     </row>
     <row r="20" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1279,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1267,17 +1287,19 @@
     </row>
     <row r="22" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1285,22 +1307,34 @@
         <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1809,19 +1843,33 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
+    <row r="60" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/doc/功能模块测试.xlsx
+++ b/public/doc/功能模块测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\workspace\HouseProject\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328788C-DECC-49B8-92CD-39634A0A9A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6607B-94AB-4ECB-BAF2-D849E08F1AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,9 +455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,6 +493,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,18 +792,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -839,10 +839,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -863,8 +863,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -883,8 +883,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
@@ -903,8 +903,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
@@ -923,8 +923,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
@@ -943,8 +943,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -965,8 +965,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,214 +981,214 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="13" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="H13" s="12"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1215,8 +1215,8 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1259,10 +1259,10 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1289,8 +1289,8 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1317,8 +1317,8 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1" t="s">
         <v>51</v>
       </c>

--- a/public/doc/功能模块测试.xlsx
+++ b/public/doc/功能模块测试.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\workspace\HouseProject\public\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HouseProject\public\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B6607B-94AB-4ECB-BAF2-D849E08F1AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,13 +293,29 @@
   </si>
   <si>
     <t>广告列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点设置图片上传问题，短信设置的短信平台选项调整，水印设置中单选框没有默认选项，微信设置点击提交按钮无反应，云存储设置中开启和关闭有两种效果，未给单选框默认选项，上传类型和类型也是单选框选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加/编辑中的导航位置和打开方式的接口调用，图标选择可能需要调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无该菜单选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了菜单列表，其他的添加和修改接口都有误，不是nav，是menu接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,6 +473,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,25 +508,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,18 +807,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -839,16 +854,18 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
@@ -863,8 +880,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -883,12 +900,14 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
@@ -903,12 +922,14 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
@@ -923,12 +944,14 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
@@ -943,8 +966,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -965,8 +988,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,14 +1004,14 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -999,7 +1022,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="4"/>
@@ -1007,9 +1030,9 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1046,7 @@
       <c r="G11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="4"/>
@@ -1031,62 +1054,62 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1095,7 +1118,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="4"/>
@@ -1103,38 +1126,38 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="15" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1147,7 +1170,7 @@
       <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="4"/>
@@ -1155,23 +1178,23 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1185,10 +1208,10 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1215,8 +1238,8 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1235,7 +1258,7 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1259,10 +1282,10 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1289,8 +1312,8 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1317,8 +1340,8 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
